--- a/Quiz.xlsx
+++ b/Quiz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>America</t>
   </si>
@@ -74,9 +74,6 @@
     <t>A place in China</t>
   </si>
   <si>
-    <t>Which virus causes the disease COVID-19</t>
-  </si>
-  <si>
     <t>SARS-CoV-2</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Close contact with a Covid19 infected person</t>
   </si>
   <si>
-    <t>What are the safe methods of disposal of dead bodies of persons who have died of suspected or confirmed COVID-19</t>
-  </si>
-  <si>
     <t>Cremation</t>
   </si>
   <si>
@@ -180,6 +174,141 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Coronaviruses are named for the spikes that protrude from their surfaces, resembling. They can infect both animals and people, and can cause illnesses of the respiratory tract.</t>
+  </si>
+  <si>
+    <t>Shark’s teeth</t>
+  </si>
+  <si>
+    <t>What are the safe methods of disposal of dead bodies of persons who have died of suspected or confirmed COVID-19?</t>
+  </si>
+  <si>
+    <t>Which virus causes the disease COVID-19?</t>
+  </si>
+  <si>
+    <t>Barbed wire</t>
+  </si>
+  <si>
+    <t>Football cleats</t>
+  </si>
+  <si>
+    <t>The Sun’s corona</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>The coronavirus spreads easily from person to person, traveling through the air, enveloped in tiny  or picked up when a person touches an infected surface.</t>
+  </si>
+  <si>
+    <t>Bacterial follicles</t>
+  </si>
+  <si>
+    <t>Gamma rays</t>
+  </si>
+  <si>
+    <t>Pollution particles</t>
+  </si>
+  <si>
+    <t>Viral droplets</t>
+  </si>
+  <si>
+    <t>Which of the following is NOT a common symptom of the coronavirus?</t>
+  </si>
+  <si>
+    <t>Dry Cough</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Rash</t>
+  </si>
+  <si>
+    <t>Shortness of breath</t>
+  </si>
+  <si>
+    <t>Most people fall ill five to seven days after exposure, but symptoms may appear in as few as two days or as many as days.</t>
+  </si>
+  <si>
+    <t>A vaccine for the coronavirus will take at least  to become available to the public.</t>
+  </si>
+  <si>
+    <t>Six weeks</t>
+  </si>
+  <si>
+    <t>Three months</t>
+  </si>
+  <si>
+    <t>Six months</t>
+  </si>
+  <si>
+    <t>One year</t>
+  </si>
+  <si>
+    <t>Which of the following disease is caused by the novel coronavirus?</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Hanta Pulmunory Syndrome</t>
+  </si>
+  <si>
+    <t>Which of the following precautions are useful in preventing the COVID-19?</t>
+  </si>
+  <si>
+    <t>Washing hands with soap</t>
+  </si>
+  <si>
+    <t>Covering nose and mouth with handkerchief</t>
+  </si>
+  <si>
+    <t>Using hand-sanitizer</t>
+  </si>
+  <si>
+    <t>All three of the above</t>
+  </si>
+  <si>
+    <t>What is the period between the contraction of the virus and the manifestation of the disease called?</t>
+  </si>
+  <si>
+    <t>Incubation Period</t>
+  </si>
+  <si>
+    <t>Infection Period</t>
+  </si>
+  <si>
+    <t>Expectation Period</t>
+  </si>
+  <si>
+    <t>Multiplication Period</t>
+  </si>
+  <si>
+    <t>At a time when all our lives are disrupted and many face increased loneliness and anxiety, experts recommend that people stay connected in all of the following ways EXCEPT :</t>
+  </si>
+  <si>
+    <t>Participating in online game nights</t>
+  </si>
+  <si>
+    <t>Participating in online learning</t>
+  </si>
+  <si>
+    <t>Connecting via social media, chat and video</t>
+  </si>
+  <si>
+    <t>Visiting others at home for short periods of time</t>
   </si>
 </sst>
 </file>
@@ -498,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -570,161 +699,341 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
-        <v>51</v>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
